--- a/biology/Zoologie/Brachycerus/Brachycerus.xlsx
+++ b/biology/Zoologie/Brachycerus/Brachycerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachycerus est un genre de coléoptères appartenant à la famille des Curculionidae dont les larves vivent dans le sol, plutôt dans les prés de liliacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Brachicerus Latreille, 1828
 Brachycerinus Bovie, 1909
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre ont un prothorax fort court avec des élytre presque ovales, chitineuses et fortement sillonnées qui recouvrent l'abdomen. Le fond est de couleur noire. Les antennes sont petites et se trouvent de chaque côté du museau (ou rostre).
 </t>
@@ -576,9 +592,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 août 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 août 2014) :
 Brachycerus abbreviatus
 Brachycerus accola
 Brachycerus acerbus
@@ -1180,7 +1198,7 @@
 Brachycerus wahlbergi
 Brachycerus westermanni
 Brachycerus zeyheri
-Selon NCBI  (30 août 2014)[2] :
+Selon NCBI  (30 août 2014) :
 Brachycerus lutosus
 Brachycerus muricatus
 Brachycerus undatus
